--- a/story/Activity Story 活动剧情/act12d0 Gavial the Great Chief Returns 密林悍将归来 帰還！密林の長/training/training_act12d0_09_d.xlsx
+++ b/story/Activity Story 活动剧情/act12d0 Gavial the Great Chief Returns 密林悍将归来 帰還！密林の長/training/training_act12d0_09_d.xlsx
@@ -50,15 +50,15 @@
     <t>[PopupDialog(dialogHead="$avatar_moeshd")] そんなこと言い出したらもう完全に悪人や！</t>
   </si>
   <si>
-    <t xml:space="preserve">[PopupDialog(dialogHead="$avatar_moeshd")] Gotta tell ya, it feels a darn sight weird like we’re the bad guys all tryin’ to make off with Gavial...
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[PopupDialog(dialogHead="$avatar_utage")] Ahah! It’s kinda shady to say, but don’t you think there’s, like, something about her that makes you wanna steal something away from her?
-</t>
-  </si>
-  <si>
-    <t>[PopupDialog(dialogHead="$avatar_moeshd")] Yup, you sayin’ that just makes the baddiness all that much badder!</t>
+    <t xml:space="preserve">[PopupDialog(dialogHead="$avatar_moeshd")] Gotta tell ya, it feels a darn sight weird like we're the bad guys all tryin' to make off with Gavial...
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[PopupDialog(dialogHead="$avatar_utage")] Ahah! It's kinda shady to say, but don't you think there's, like, something about her that makes you wanna steal something away from her?
+</t>
+  </si>
+  <si>
+    <t>[PopupDialog(dialogHead="$avatar_moeshd")] Yup, you sayin' that just makes the baddiness all that much badder!</t>
   </si>
   <si>
     <t xml:space="preserve">[PopupDialog(dialogHead="$avatar_moeshd")] 우째 우리가 가비알을 납치해간 악당이 된 거 같구마…
